--- a/src/assets/figures/sources/results.xlsx
+++ b/src/assets/figures/sources/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaTeX\PhD-Thesis\src\assets\figures\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3BE349-9270-4DE7-B1C2-F6B2A6A74BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483A42A-982A-4D51-80AF-83FDF883A217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9893E5BE-5E26-4B28-9FC4-AC4C175759D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9893E5BE-5E26-4B28-9FC4-AC4C175759D7}"/>
   </bookViews>
   <sheets>
     <sheet name="wear_v1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>soil_type_wear_v1_6</t>
   </si>
@@ -47,18 +47,6 @@
     <t>soil_type_wear_v2_12</t>
   </si>
   <si>
-    <t>soil_type_people_wear_v1_6</t>
-  </si>
-  <si>
-    <t>soil_type_people_wear_v2_6</t>
-  </si>
-  <si>
-    <t>soil_type_people_wear_v2_9</t>
-  </si>
-  <si>
-    <t>soil_type_people_wear_v2_12</t>
-  </si>
-  <si>
     <t>soil_type_position_wear_v1_6</t>
   </si>
   <si>
@@ -69,9 +57,6 @@
   </si>
   <si>
     <t>soil_type_position_wear_v2_12</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
   <si>
     <t>knn-k1-dE</t>
@@ -125,31 +110,31 @@
     <t>#</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>G</t>
+    <t>F-Mesure</t>
   </si>
   <si>
-    <t>H</t>
+    <t>9 axes</t>
   </si>
   <si>
-    <t>I</t>
+    <t>soil_type_cell_6</t>
+  </si>
+  <si>
+    <t>soil_type_cell_9</t>
+  </si>
+  <si>
+    <t>soil_type_cell_12</t>
+  </si>
+  <si>
+    <t>soil_type_position_cell_6</t>
+  </si>
+  <si>
+    <t>soil_type_position_cell_9</t>
+  </si>
+  <si>
+    <t>soil_type_position_cell_12</t>
   </si>
 </sst>
 </file>
@@ -173,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,15 +181,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,11 +212,24 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -316,16 +324,13 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$D$7:$D$9</c:f>
+              <c:f>wear_v1!$D$7:$D$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v1_6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>soil_type_people_wear_v1_6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>soil_type_position_wear_v1_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -333,18 +338,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$E$7:$E$9</c:f>
+              <c:f>wear_v1!$E$7:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.76</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,16 +401,13 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$D$7:$D$9</c:f>
+              <c:f>wear_v1!$D$7:$D$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v1_6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>soil_type_people_wear_v1_6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>soil_type_position_wear_v1_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -416,18 +415,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$F$7:$F$9</c:f>
+              <c:f>wear_v1!$F$7:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,16 +478,13 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$D$7:$D$9</c:f>
+              <c:f>wear_v1!$D$7:$D$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v1_6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>soil_type_people_wear_v1_6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>soil_type_position_wear_v1_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -499,18 +492,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$G$7:$G$9</c:f>
+              <c:f>wear_v1!$G$7:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.76</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,16 +555,13 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$D$7:$D$9</c:f>
+              <c:f>wear_v1!$D$7:$D$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v1_6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>soil_type_people_wear_v1_6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>soil_type_position_wear_v1_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -582,17 +569,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$H$7:$H$9</c:f>
+              <c:f>wear_v1!$H$7:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.77</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
@@ -648,16 +632,13 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$D$7:$D$9</c:f>
+              <c:f>wear_v1!$D$7:$D$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v1_6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>soil_type_people_wear_v1_6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>soil_type_position_wear_v1_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -665,18 +646,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$I$7:$I$9</c:f>
+              <c:f>wear_v1!$I$7:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.78</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,16 +709,13 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$D$7:$D$9</c:f>
+              <c:f>wear_v1!$D$7:$D$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v1_6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>soil_type_people_wear_v1_6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>soil_type_position_wear_v1_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -748,18 +723,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$J$7:$J$9</c:f>
+              <c:f>wear_v1!$J$7:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.76</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,6 +832,7 @@
         <c:axId val="1333550511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -912,7 +885,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1054,7 +1027,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>wear_v1!$E$12</c:f>
+              <c:f>wear_v1!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1093,16 +1066,13 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$D$13:$D$15</c:f>
+              <c:f>wear_v1!$D$12:$D$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v1_6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>soil_type_people_wear_v1_6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>soil_type_position_wear_v1_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -1110,18 +1080,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$E$13:$E$15</c:f>
+              <c:f>wear_v1!$E$12:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +1104,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>wear_v1!$F$12</c:f>
+              <c:f>wear_v1!$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1176,16 +1143,13 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$D$13:$D$15</c:f>
+              <c:f>wear_v1!$D$12:$D$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v1_6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>soil_type_people_wear_v1_6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>soil_type_position_wear_v1_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -1193,18 +1157,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$F$13:$F$15</c:f>
+              <c:f>wear_v1!$F$12:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.83</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.84</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,9 +1247,9 @@
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1358,11 +1319,11 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1414,9 +1375,9 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1492,17 +1453,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>wear_v1!$F$51</c:f>
+              <c:f>wear_v1!$F$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k</c:v>
+                  <c:v>F-Mesure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1517,7 +1478,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1527,7 +1488,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$E$52:$E$56</c:f>
+              <c:f>wear_v1!$E$50:$E$54</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1550,7 +1511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$F$52:$F$56</c:f>
+              <c:f>wear_v1!$F$50:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1561,13 +1522,13 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,7 +1544,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>référence</c:v>
+            <c:v>Référence</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="flat">
@@ -1600,29 +1561,29 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$D$52:$D$56</c:f>
+              <c:f>wear_v1!$D$50:$D$54</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.83000000000000007</c:v>
+                  <c:v>0.8849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83000000000000007</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83000000000000007</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83000000000000007</c:v>
+                  <c:v>0.84499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83000000000000007</c:v>
+                  <c:v>0.86499999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0FA0-4777-878C-4510A88337C1}"/>
@@ -1752,7 +1713,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -1772,7 +1733,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1803,9 +1764,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.40185314424234159"/>
-          <c:y val="5.0130787408619863E-2"/>
-          <c:w val="0.25449513446011057"/>
+          <c:x val="0.18881947428527046"/>
+          <c:y val="4.3364475646728476E-2"/>
+          <c:w val="0.69543249815595853"/>
           <c:h val="6.4023989094909028E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1913,17 +1874,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>wear_v1!$F$60</c:f>
+              <c:f>wear_v1!$F$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k</c:v>
+                  <c:v>F-Mesure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1938,7 +1899,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1948,7 +1909,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v1!$E$61:$E$65</c:f>
+              <c:f>wear_v1!$E$59:$E$63</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1971,24 +1932,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$F$61:$F$65</c:f>
+              <c:f>wear_v1!$F$59:$F$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.87</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,7 +1965,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>référence</c:v>
+            <c:v>Référence</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2021,29 +1982,29 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>wear_v1!$D$61:$D$65</c:f>
+              <c:f>wear_v1!$D$59:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.85199999999999998</c:v>
+                  <c:v>0.86750000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85199999999999998</c:v>
+                  <c:v>0.79250000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85199999999999998</c:v>
+                  <c:v>0.89624999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85199999999999998</c:v>
+                  <c:v>0.83500000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85199999999999998</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-97E4-4FE1-B4A4-235DB352D30C}"/>
@@ -2173,7 +2134,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -2206,6 +2167,8 @@
         <c:crossAx val="1784061455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2223,9 +2186,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39884152030727388"/>
-          <c:y val="5.3403739365573036E-2"/>
-          <c:w val="0.25448705474124472"/>
+          <c:x val="0.18246682007102111"/>
+          <c:y val="4.9906625744639721E-2"/>
+          <c:w val="0.68908576848912262"/>
           <c:h val="6.394125378418844E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2314,862 +2277,6 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>k</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>wear_v1!$E$98:$E$106</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>G</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>H</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>I</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>wear_v1!$F$98:$F$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-732F-4FA9-AD07-8855C4F04D50}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>référence</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>wear_v1!$D$98:$D$106</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.84222222222222209</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84222222222222209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84222222222222209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84222222222222209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84222222222222209</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84222222222222209</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84222222222222209</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.84222222222222209</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84222222222222209</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-732F-4FA9-AD07-8855C4F04D50}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1519007439"/>
-        <c:axId val="1708364367"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1519007439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1708364367"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1708364367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1519007439"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>k</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>wear_v1!$E$109:$E$117</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>G</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>H</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>I</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>wear_v1!$F$109:$F$117</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05FB-458A-B9B0-8AF5B80DE4D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>référence</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>wear_v1!$D$109:$D$117</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.87666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.87666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.87666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.87666666666666671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-05FB-458A-B9B0-8AF5B80DE4D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1326452271"/>
-        <c:axId val="1708382671"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1326452271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1708382671"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1708382671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1326452271"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -3229,9 +2336,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v2!$C$4:$C$12</c:f>
+              <c:f>wear_v2!$C$4:$C$9</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v2_6</c:v>
                 </c:pt>
@@ -3242,21 +2349,12 @@
                   <c:v>soil_type_wear_v2_12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>soil_type_people_wear_v2_6</c:v>
+                  <c:v>soil_type_position_wear_v2_6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>soil_type_people_wear_v2_9</c:v>
+                  <c:v>soil_type_position_wear_v2_9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>soil_type_people_wear_v2_12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>soil_type_position_wear_v2_6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>soil_type_position_wear_v2_9</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>soil_type_position_wear_v2_12</c:v>
                 </c:pt>
               </c:strCache>
@@ -3264,36 +2362,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v2!$D$4:$D$12</c:f>
+              <c:f>wear_v2!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3348,9 +2437,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>wear_v2!$C$4:$C$12</c:f>
+              <c:f>wear_v2!$C$4:$C$9</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>soil_type_wear_v2_6</c:v>
                 </c:pt>
@@ -3361,21 +2450,12 @@
                   <c:v>soil_type_wear_v2_12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>soil_type_people_wear_v2_6</c:v>
+                  <c:v>soil_type_position_wear_v2_6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>soil_type_people_wear_v2_9</c:v>
+                  <c:v>soil_type_position_wear_v2_9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>soil_type_people_wear_v2_12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>soil_type_position_wear_v2_6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>soil_type_position_wear_v2_9</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>soil_type_position_wear_v2_12</c:v>
                 </c:pt>
               </c:strCache>
@@ -3383,36 +2463,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wear_v2!$E$4:$E$12</c:f>
+              <c:f>wear_v2!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3431,7 +2502,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="146"/>
+        <c:overlap val="-39"/>
         <c:axId val="1717403663"/>
         <c:axId val="1860478079"/>
       </c:barChart>
@@ -3512,6 +2584,7 @@
         <c:axId val="1860478079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3640,6 +2713,1336 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10602886481727335"/>
+          <c:y val="0.18507737894689535"/>
+          <c:w val="0.85538846040950289"/>
+          <c:h val="0.65308751265450327"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>wear_v2!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Mesure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>wear_v2!$D$26:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sac à dos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sac bandoulière à gauche</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>poche gauche</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sac bandoulière à droite</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>poche droite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wear_v2!$E$26:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B58-48F5-A0B8-EE11E3BC9E94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Référence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>wear_v2!$D$26:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sac à dos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sac bandoulière à gauche</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>poche gauche</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sac bandoulière à droite</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>poche droite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wear_v2!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B58-48F5-A0B8-EE11E3BC9E94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="284314784"/>
+        <c:axId val="1737658720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="284314784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1737658720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1737658720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284314784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19209528228065706"/>
+          <c:y val="5.7412288037901153E-2"/>
+          <c:w val="0.68405360836255968"/>
+          <c:h val="6.4697186744701998E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10602886481727335"/>
+          <c:y val="0.17179460279286352"/>
+          <c:w val="0.8535511901822066"/>
+          <c:h val="0.66277547068728815"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>wear_v2!$E$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Mesure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>wear_v2!$D$35:$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sac à dos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sac bandoulière à gauche</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>poche gauche</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sac bandoulière à droite</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>poche droite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wear_v2!$E$35:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F68-48B3-BCEF-6CF36C2BF360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Référence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>wear_v2!$C$35:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90666666666666662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F68-48B3-BCEF-6CF36C2BF360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="303015648"/>
+        <c:axId val="2011245024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="303015648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011245024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2011245024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303015648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17004803955310066"/>
+          <c:y val="5.4106271960702661E-2"/>
+          <c:w val="0.71869642350033536"/>
+          <c:h val="6.4782408645074577E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29130953206840338"/>
+          <c:y val="0.11455589327929755"/>
+          <c:w val="0.66922644443673618"/>
+          <c:h val="0.72662977938568485"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cell!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rf-300-f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>cell!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>soil_type_cell_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>soil_type_cell_9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>soil_type_cell_12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>soil_type_position_cell_6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>soil_type_position_cell_9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>soil_type_position_cell_12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cell!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88E6-49AE-B46C-B0998BBEC4F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cell!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>knn-k1-dM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>cell!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>soil_type_cell_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>soil_type_cell_9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>soil_type_cell_12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>soil_type_position_cell_6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>soil_type_position_cell_9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>soil_type_position_cell_12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cell!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88E6-49AE-B46C-B0998BBEC4F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="146"/>
+        <c:overlap val="-39"/>
+        <c:axId val="300653328"/>
+        <c:axId val="2013548304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="300653328"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013548304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2013548304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300653328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36502494594563345"/>
+          <c:y val="0.88602907369311557"/>
+          <c:w val="0.26994996357834128"/>
+          <c:h val="6.3920876256834264E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3943,6 +4346,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5956,7 +6399,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6160,22 +6603,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6280,8 +6724,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6413,19 +6857,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6459,7 +6904,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6567,6 +7012,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6577,6 +7027,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6608,6 +7063,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6962,6 +7420,509 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7478,7 +8439,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>185530</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7508,13 +8469,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>203147</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>157181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>185530</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>71501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7543,15 +8504,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>198775</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>144938</xdr:rowOff>
+      <xdr:colOff>200680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>143033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>176788</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>58798</xdr:rowOff>
+      <xdr:colOff>172978</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>54988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7579,15 +8540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190920</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>168309</xdr:rowOff>
+      <xdr:colOff>272562</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>172119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>169149</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:colOff>254601</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>88991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7612,78 +8573,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>146637</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>159491</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>170377</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>74821</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05DF139-B163-418A-B9D5-306184060912}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133766</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>10883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>227415</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>112122</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFAFB3C-1808-43B8-8C07-6C4EB84A7980}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7691,16 +8580,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300317</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65315</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50075</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>515455</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7714,6 +8603,119 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>239483</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>169223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>446312</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF54A88-1853-45AA-9CD8-E000AE6CC477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261256</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F541423-D9E4-48D6-A1FD-879D0DE9031C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>135528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55518</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDED0175-F287-4884-A392-57985D5888E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8027,10 +9029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB589F8F-F1F7-4685-BB6D-3301A90A4EFE}">
-  <dimension ref="D6:K117"/>
+  <dimension ref="B6:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97:F117"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8043,559 +9045,547 @@
     <col min="11" max="11" width="1.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2" t="s">
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D50" s="4">
+        <f>(0.9+0.94+0.86+0.84)/4</f>
+        <v>0.8849999999999999</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="F50" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D51" s="4">
+        <f>(0.94+0.92+0.87+0.75)/4</f>
+        <v>0.87</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D52" s="4">
+        <f>(0.91+0.78+0.93+0.94)/4</f>
+        <v>0.89</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="F52" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D53" s="4">
+        <f>(0.92+0.82+0.81+0.83)/4</f>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D54" s="4">
+        <f>(0.77+0.82+0.93+0.94)/4</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="F54" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G54" s="7"/>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.76</v>
-      </c>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D55" s="6">
+        <f>AVERAGE(D50:D54)</f>
+        <v>0.87100000000000011</v>
+      </c>
+      <c r="G55" s="7"/>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.77</v>
-      </c>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G56" s="7"/>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D52" s="2">
-        <f>SUM(F$52:F$56)/COUNT(F$52:F$56)</f>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D53" s="2">
-        <f>SUM(F$52:F$56)/COUNT(F$52:F$56)</f>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D54" s="2">
-        <f>SUM(F$52:F$56)/COUNT(F$52:F$56)</f>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D55" s="2">
-        <f>SUM(F$52:F$56)/COUNT(F$52:F$56)</f>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D56" s="2">
-        <f>SUM(F$52:F$56)/COUNT(F$52:F$56)</f>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G57" s="7"/>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D59" s="4">
+        <f>(0.8+0.79+0.95+0.93)/4</f>
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.9</v>
+      </c>
       <c r="G59" s="7"/>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D60" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="6"/>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D60" s="4">
+        <f>(0.86+0.92+0.71+0.68)/4</f>
+        <v>0.79250000000000009</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D61" s="5">
-        <f>SUM(F$61:F$65)/COUNT(F$61:F$65)</f>
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="G61" s="6"/>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D61" s="4">
+        <f>(0.89+0.865+0.95+0.88)/4</f>
+        <v>0.89624999999999999</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D62" s="5">
-        <f>SUM(F$61:F$65)/COUNT(F$61:F$65)</f>
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="G62" s="6"/>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D62" s="4">
+        <f>(0.79+0.75+0.91+0.89)/4</f>
+        <v>0.83500000000000008</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D63" s="5">
-        <f>SUM(F$61:F$65)/COUNT(F$61:F$65)</f>
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="G63" s="6"/>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D63" s="4">
+        <f>(0.78+0.77+0.95+0.92)/4</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D64" s="5">
-        <f>SUM(F$61:F$65)/COUNT(F$61:F$65)</f>
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="G64" s="6"/>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D64" s="6">
+        <f>AVERAGE(D59:D63)</f>
+        <v>0.84924999999999995</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D65" s="5">
-        <f>SUM(F$61:F$65)/COUNT(F$61:F$65)</f>
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="G65" s="6"/>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G66" s="7"/>
-      <c r="I66" t="s">
-        <v>21</v>
-      </c>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G67" s="7"/>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D71" s="6"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G68" s="7"/>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D98" s="5">
-        <f>AVERAGE(F$98:F$106)</f>
-        <v>0.84222222222222209</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" s="2">
-        <v>0.89</v>
-      </c>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D99" s="5">
-        <f t="shared" ref="D99:D106" si="0">AVERAGE(F$98:F$106)</f>
-        <v>0.84222222222222209</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F99" s="2">
-        <v>0.74</v>
-      </c>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D100" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84222222222222209</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F100" s="2">
-        <v>0.91</v>
-      </c>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D101" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84222222222222209</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F101" s="2">
-        <v>0.93</v>
-      </c>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D102" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84222222222222209</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F102" s="2">
-        <v>0.81</v>
-      </c>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D103" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84222222222222209</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F103" s="2">
-        <v>0.81</v>
-      </c>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D104" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84222222222222209</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F104" s="2">
-        <v>0.69</v>
-      </c>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D105" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84222222222222209</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F105" s="2">
-        <v>0.92</v>
-      </c>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D106" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84222222222222209</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F106" s="2">
-        <v>0.88</v>
-      </c>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E107" s="1"/>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D108" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D109" s="5">
-        <f>AVERAGE(F$109:F$117)</f>
-        <v>0.87666666666666671</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" s="2">
-        <v>0.88</v>
-      </c>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D110" s="5">
-        <f t="shared" ref="D110:D117" si="1">AVERAGE(F$109:F$117)</f>
-        <v>0.87666666666666671</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F110" s="2">
-        <v>0.81</v>
-      </c>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D111" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87666666666666671</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F111" s="2">
-        <v>0.89</v>
-      </c>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D112" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87666666666666671</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F112" s="2">
-        <v>0.97</v>
-      </c>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D113" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87666666666666671</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" s="2">
-        <v>0.86</v>
-      </c>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D114" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87666666666666671</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0.92</v>
-      </c>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D115" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87666666666666671</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F115" s="2">
-        <v>0.75</v>
-      </c>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D116" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87666666666666671</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" s="2">
-        <v>0.95</v>
-      </c>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D117" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87666666666666671</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="2">
-        <v>0.86</v>
-      </c>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8605,373 +9595,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ECDA10-86C4-4D89-9303-79E34BE95740}">
-  <dimension ref="C3:E79"/>
+  <dimension ref="B3:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.9</v>
+      <c r="D4" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.89</v>
+      <c r="D5" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.93</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.85</v>
+      <c r="D6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.89</v>
+      <c r="D7" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.87</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.91</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="1">
         <v>0.91</v>
       </c>
-      <c r="E9" s="5">
+      <c r="D27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="1">
         <v>0.89</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.92</v>
+      </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="1">
         <v>0.92</v>
       </c>
-      <c r="E10" s="5">
-        <v>0.86</v>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.92</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.91</v>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.86</v>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <f>(0.97+0.93+0.93)/3</f>
+        <v>0.94333333333333336</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.94</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-      <c r="D29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
-      <c r="D31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-      <c r="D32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="2"/>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="4">
+        <f>(0.88+0.88+0.94)/3</f>
+        <v>0.9</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>12</v>
+      <c r="C37" s="4">
+        <f>(0.93+0.86+0.94)/3</f>
+        <v>0.91</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.92</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="5"/>
-      <c r="D38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="2"/>
+      <c r="C38" s="4">
+        <f>(0.91+0.9+0.9)/3</f>
+        <v>0.90333333333333332</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="5"/>
-      <c r="D39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="2"/>
+      <c r="C39" s="4">
+        <f>(0.94+0.9+0.88)/3</f>
+        <v>0.90666666666666662</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="5"/>
-      <c r="D40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="5"/>
-      <c r="D41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="5"/>
-      <c r="D42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C60" s="5"/>
-      <c r="D60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C61" s="5"/>
-      <c r="D61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C62" s="5"/>
-      <c r="D62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C63" s="5"/>
-      <c r="D63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="5"/>
-      <c r="D64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C65" s="5"/>
-      <c r="D65" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C66" s="5"/>
-      <c r="D66" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C67" s="5"/>
-      <c r="D67" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C68" s="5"/>
-      <c r="D68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C71" s="5"/>
-      <c r="D71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C72" s="5"/>
-      <c r="D72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C73" s="5"/>
-      <c r="D73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C74" s="5"/>
-      <c r="D74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C75" s="5"/>
-      <c r="D75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C76" s="5"/>
-      <c r="D76" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C77" s="5"/>
-      <c r="D77" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C78" s="5"/>
-      <c r="D78" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C79" s="5"/>
-      <c r="D79" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="2"/>
+      <c r="C41" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C23:E23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8980,12 +9853,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16A6618-5158-477E-BADE-13A291474297}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>